--- a/data/data_prep.xlsx
+++ b/data/data_prep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eric\Projects\AI_Researcher_Network\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssr\EJC\ATIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45F3A90-E539-4350-A9D0-AF0ED037F04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287251B8-9B72-42EF-8EDC-54877896C96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{207A7927-F70B-47D3-A48F-2A00D3271A43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{207A7927-F70B-47D3-A48F-2A00D3271A43}"/>
   </bookViews>
   <sheets>
     <sheet name="data_prep" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="119">
   <si>
     <t>Category</t>
   </si>
@@ -371,17 +371,25 @@
   </si>
   <si>
     <t>CSR ranking (institution)</t>
+  </si>
+  <si>
+    <t>First/last author publications (author)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -389,7 +397,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -397,7 +405,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Aptos Display"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -406,7 +414,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -415,7 +423,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -424,7 +432,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -432,7 +440,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -440,7 +448,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -448,7 +456,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -456,7 +464,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -465,7 +473,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -474,7 +482,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -482,7 +490,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -491,7 +499,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -499,7 +507,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -508,7 +516,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -517,7 +525,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -525,14 +533,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -540,7 +548,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFEE0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -908,51 +923,51 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -968,7 +983,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1284,13 +1299,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2954E6C0-05BF-423C-86C8-25EF8CAEEFFD}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
@@ -1302,7 +1317,7 @@
     <col min="9" max="9" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1356,7 +1371,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1375,7 +1390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1390,7 +1405,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1417,7 +1432,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1440,7 +1455,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1455,7 +1470,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1470,7 +1485,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1485,7 +1500,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1502,7 +1517,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1531,7 +1546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1550,7 +1565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>33</v>
@@ -1573,7 +1588,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1588,7 +1603,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1607,7 +1622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1632,7 +1647,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1649,7 +1664,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1666,7 +1681,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1685,7 +1700,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1712,7 +1727,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1729,7 +1744,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1744,7 +1759,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -1771,7 +1786,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1796,7 +1811,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1811,7 +1826,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1828,7 +1843,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -1853,7 +1868,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -1878,7 +1893,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1895,7 +1910,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -1920,7 +1935,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,7 +1960,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -1970,7 +1985,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -1997,7 +2012,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -2024,7 +2039,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -2049,7 +2064,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2064,7 +2079,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>92</v>
       </c>
@@ -2089,7 +2104,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -2114,7 +2129,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2131,7 +2146,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -2154,7 +2169,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>92</v>
       </c>
@@ -2177,12 +2192,172 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="5" t="s">
+    <row r="43" spans="1:9"/>
+    <row r="45" spans="1:9">
+      <c r="E45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="E46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="E47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="E48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6">
+      <c r="D49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6">
+      <c r="E50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6">
+      <c r="E51" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6">
+      <c r="E52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6">
+      <c r="E53" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6">
+      <c r="E55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6">
+      <c r="E56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6">
+      <c r="E57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6">
+      <c r="E58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6">
+      <c r="E59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6">
+      <c r="E61" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6">
+      <c r="E62" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6">
+      <c r="E64" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6">
+      <c r="E65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6">
+      <c r="E66" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6">
+      <c r="E67" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>